--- a/Results/ROC_Curves_Results/ROC_Curve_CoefficiantA(Fscore).xlsx
+++ b/Results/ROC_Curves_Results/ROC_Curve_CoefficiantA(Fscore).xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/Research_Evan/Raji_Summer2019_atom/Results/ROC_Curves_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349D648B-F725-494C-8B21-897CB1D66DA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31BD34F-90EB-874E-ACB0-5563A4E5FAA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15920"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roc_Curve_CoefficiantA(Fscore)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Threshold</t>
   </si>
@@ -36,11 +44,17 @@
   <si>
     <t>AUCR</t>
   </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -593,6 +607,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ROC Curve</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -606,16 +651,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -632,7 +677,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -640,14 +685,16 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -994,255 +1041,255 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Roc_Curve_CoefficiantA(Fscore)'!$B$3:$B$111</c:f>
+              <c:f>'Roc_Curve_CoefficiantA(Fscore)'!$B$2:$B$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="109"/>
+                <c:ptCount val="110"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.879</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.85099999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.81399999999999995</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.80900000000000005</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.78500000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.77200000000000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.75900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.746</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.73799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.72299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.72299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.71</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.70699999999999996</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.69699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.69099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.69099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.67600000000000005</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.67100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.66500000000000004</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.65500000000000003</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.63900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.621</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.60499999999999998</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.60299999999999998</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.59699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.58699999999999997</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.57899999999999996</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.57399999999999995</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.56299999999999994</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.56100000000000005</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>0.54300000000000004</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>0.53700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>0.52200000000000002</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>0.51900000000000002</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>0.50600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>0.501</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>0.48799999999999999</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>0.47199999999999998</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>0.46200000000000002</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>0.44900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>0.44600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>0.436</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>0.39600000000000002</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>0.38300000000000001</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>0.378</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.35199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.35199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0.34699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>0.32600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>0.30499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>0.28699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>0.27900000000000003</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>0.27100000000000002</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>0.255</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>0.24</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>0.23699999999999999</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>0.23200000000000001</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>0.224</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>0.214</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>0.19800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>0.17399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>0.16400000000000001</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>0.151</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>0.13500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>0.127</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>0.122</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>9.9000000000000005E-2</c:v>
@@ -1251,55 +1298,55 @@
                   <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>7.8E-2</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>3.1E-2</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>0</c:v>
@@ -1323,6 +1370,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1350,6 +1400,7 @@
         <c:axId val="1034393216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1373,14 +1424,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1389,7 +1439,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1412,6 +1462,7 @@
         <c:axId val="983500304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1435,14 +1486,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1451,7 +1501,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1522,7 +1572,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1594,7 +1644,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1605,7 +1655,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1618,28 +1668,27 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1651,7 +1700,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1670,23 +1719,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1695,37 +1736,53 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1735,22 +1792,27 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1780,15 +1842,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1798,7 +1858,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1807,14 +1867,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1823,10 +1882,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1842,10 +1901,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1861,21 +1920,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1894,17 +1947,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1913,14 +1965,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1932,17 +1984,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1956,14 +2007,14 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1971,7 +2022,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1984,6 +2035,16 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1991,10 +2052,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2009,13 +2070,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2024,14 +2085,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2052,20 +2112,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2080,31 +2139,24 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2114,15 +2166,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2446,11 +2498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K92" sqref="K12:K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2482,6 +2534,14 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <f>(C2-C3)*B2</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G2">
+        <f>(C2-C3)*B3</f>
+        <v>0.452685</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2493,6 +2553,14 @@
       <c r="C3">
         <v>0.48499999999999999</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">(C3-C4)*B3</f>
+        <v>6.5925000000000011E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">(C3-C4)*B4</f>
+        <v>6.3825000000000007E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2504,6 +2572,14 @@
       <c r="C4">
         <v>0.41</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.4890999999999985E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>3.4029999999999984E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2515,6 +2591,14 @@
       <c r="C5">
         <v>0.36899999999999999</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.4899999999999974E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.4419999999999976E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2526,6 +2610,14 @@
       <c r="C6">
         <v>0.33900000000000002</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.9536000000000015E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.941600000000002E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2537,6 +2629,14 @@
       <c r="C7">
         <v>0.315</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.941600000000002E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.8984000000000018E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2548,6 +2648,14 @@
       <c r="C8">
         <v>0.29099999999999998</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.2655999999999968E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.2559999999999969E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2559,6 +2667,14 @@
       <c r="C9">
         <v>0.27500000000000002</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.4200000000000082E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>9.2640000000000083E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2570,6 +2686,14 @@
       <c r="C10">
         <v>0.26300000000000001</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9.2640000000000083E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>9.1080000000000085E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2581,6 +2705,14 @@
       <c r="C11">
         <v>0.251</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9.1080000000000085E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8.9520000000000086E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2592,6 +2724,14 @@
       <c r="C12">
         <v>0.23899999999999999</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5.2219999999999836E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>5.165999999999984E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2603,6 +2743,14 @@
       <c r="C13">
         <v>0.23200000000000001</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6.6420000000000055E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>6.5070000000000058E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2614,6 +2762,14 @@
       <c r="C14">
         <v>0.223</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5.7840000000000053E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>5.7840000000000053E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2625,6 +2781,14 @@
       <c r="C15">
         <v>0.215</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5.0610000000000047E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>4.9700000000000039E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2636,8 +2800,16 @@
       <c r="C16">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3.5499999999999833E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>3.5349999999999835E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.15</v>
       </c>
@@ -2647,8 +2819,16 @@
       <c r="C17">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.8280000000000024E-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.7880000000000023E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.16</v>
       </c>
@@ -2658,8 +2838,16 @@
       <c r="C18">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4.1820000000000034E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>4.146000000000003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.17</v>
       </c>
@@ -2669,8 +2857,16 @@
       <c r="C19">
         <v>0.193</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.4550000000000028E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>3.4550000000000028E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.18</v>
       </c>
@@ -2680,8 +2876,16 @@
       <c r="C20">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.8370000000000036E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>4.7320000000000044E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.19</v>
       </c>
@@ -2691,8 +2895,16 @@
       <c r="C21">
         <v>0.18099999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3.3800000000000032E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>3.3550000000000034E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -2702,8 +2914,16 @@
       <c r="C22">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.6840000000000024E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2.6600000000000026E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.21</v>
       </c>
@@ -2713,8 +2933,16 @@
       <c r="C23">
         <v>0.17199999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3.3249999999999847E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>3.274999999999985E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.22</v>
       </c>
@@ -2724,8 +2952,16 @@
       <c r="C24">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.9650000000000019E-3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.9170000000000018E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.23</v>
       </c>
@@ -2735,8 +2971,16 @@
       <c r="C25">
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.5560000000000023E-3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2.5360000000000022E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.24</v>
       </c>
@@ -2746,8 +2990,16 @@
       <c r="C26">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.5360000000000022E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2.4840000000000023E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.25</v>
       </c>
@@ -2757,8 +3009,16 @@
       <c r="C27">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2.4840000000000023E-3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>2.420000000000002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.26</v>
       </c>
@@ -2768,8 +3028,16 @@
       <c r="C28">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.8150000000000015E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1.8090000000000016E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.27</v>
       </c>
@@ -2779,8 +3047,16 @@
       <c r="C29">
         <v>0.14899999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2.4120000000000022E-3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>2.3880000000000021E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.28000000000000003</v>
       </c>
@@ -2790,8 +3066,16 @@
       <c r="C30">
         <v>0.14499999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.7910000000000016E-3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1.7610000000000015E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.28999999999999998</v>
       </c>
@@ -2801,8 +3085,16 @@
       <c r="C31">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2.9349999999999862E-3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>2.8949999999999861E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.3</v>
       </c>
@@ -2812,8 +3104,16 @@
       <c r="C32">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.158000000000001E-3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1.148000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.31</v>
       </c>
@@ -2823,8 +3123,16 @@
       <c r="C33">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2.8700000000000023E-3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>2.8150000000000024E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.32</v>
       </c>
@@ -2834,8 +3142,16 @@
       <c r="C34">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.6890000000000013E-3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1.6830000000000016E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.33</v>
       </c>
@@ -2845,8 +3161,16 @@
       <c r="C35">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.122000000000001E-3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000012E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.34</v>
       </c>
@@ -2856,8 +3180,16 @@
       <c r="C36">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000023E-3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>2.1720000000000021E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.35</v>
       </c>
@@ -2867,8 +3199,16 @@
       <c r="C37">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>2.1719999999999947E-3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>2.1479999999999945E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.36</v>
       </c>
@@ -2878,8 +3218,16 @@
       <c r="C38">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.6110000000000015E-3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1.5660000000000014E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.37</v>
       </c>
@@ -2889,8 +3237,16 @@
       <c r="C39">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>2.0880000000000017E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>2.0760000000000019E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.38</v>
       </c>
@@ -2900,8 +3256,16 @@
       <c r="C40">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.5570000000000015E-3</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1.5180000000000013E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.39</v>
       </c>
@@ -2911,8 +3275,16 @@
       <c r="C41">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1.012000000000001E-3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>1.0020000000000009E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.4</v>
       </c>
@@ -2922,8 +3294,16 @@
       <c r="C42">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.5030000000000013E-3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1.4700000000000013E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.41</v>
       </c>
@@ -2933,8 +3313,16 @@
       <c r="C43">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1.4699999999999945E-3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1.4639999999999946E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.42</v>
       </c>
@@ -2944,8 +3332,16 @@
       <c r="C44">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>9.7600000000000085E-4</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000078E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.43</v>
       </c>
@@ -2955,8 +3351,16 @@
       <c r="C45">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>2.400000000000002E-3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>2.3600000000000019E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.44</v>
       </c>
@@ -2966,8 +3370,16 @@
       <c r="C46">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1.8880000000000017E-3</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1.8480000000000018E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.45</v>
       </c>
@@ -2977,8 +3389,16 @@
       <c r="C47">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1.8479999999999953E-3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1.7959999999999953E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.46</v>
       </c>
@@ -2988,8 +3408,16 @@
       <c r="C48">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.7960000000000016E-3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1.7840000000000015E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.47</v>
       </c>
@@ -2999,8 +3427,16 @@
       <c r="C49">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>4.0140000000000037E-3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>3.9240000000000039E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.48</v>
       </c>
@@ -3010,8 +3446,16 @@
       <c r="C50">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>3.4879999999999972E-3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>3.3599999999999971E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.49</v>
       </c>
@@ -3021,8 +3465,16 @@
       <c r="C51">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2.099999999999999E-3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1.9799999999999991E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -3032,8 +3484,16 @@
       <c r="C52">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>7.9200000000000071E-4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>7.6600000000000073E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.51</v>
       </c>
@@ -3043,8 +3503,16 @@
       <c r="C53">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1.5320000000000015E-3</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1.5120000000000014E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.52</v>
       </c>
@@ -3054,8 +3522,16 @@
       <c r="C54">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1.1339999999999983E-3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1.1099999999999984E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.53</v>
       </c>
@@ -3065,8 +3541,16 @@
       <c r="C55">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>7.4000000000000064E-4</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>7.0400000000000063E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.54</v>
       </c>
@@ -3076,8 +3560,16 @@
       <c r="C56">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1.0560000000000009E-3</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1.0560000000000009E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.55000000000000004</v>
       </c>
@@ -3087,8 +3579,16 @@
       <c r="C57">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>3.5200000000000032E-4</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>3.470000000000003E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.56000000000000005</v>
       </c>
@@ -3098,8 +3598,16 @@
       <c r="C58">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>6.9399999999999811E-4</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>6.5199999999999839E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.56999999999999995</v>
       </c>
@@ -3109,8 +3617,16 @@
       <c r="C59">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>6.5200000000000056E-4</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>6.1000000000000052E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.57999999999999996</v>
       </c>
@@ -3120,8 +3636,16 @@
       <c r="C60">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>3.0500000000000026E-4</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>2.8700000000000025E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.59</v>
       </c>
@@ -3131,8 +3655,16 @@
       <c r="C61">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>8.609999999999987E-4</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>8.3699999999999888E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.6</v>
       </c>
@@ -3142,8 +3674,16 @@
       <c r="C62">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>5.5800000000000055E-4</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>5.4200000000000049E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.61</v>
       </c>
@@ -3153,8 +3693,16 @@
       <c r="C63">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>5.4200000000000049E-4</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000047E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.62</v>
       </c>
@@ -3164,8 +3712,16 @@
       <c r="C64">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>5.099999999999996E-4</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999958E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.63</v>
       </c>
@@ -3175,8 +3731,16 @@
       <c r="C65">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>2.400000000000002E-4</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>2.370000000000002E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.64</v>
       </c>
@@ -3186,8 +3750,16 @@
       <c r="C66">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>4.7400000000000041E-4</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>4.6400000000000044E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.65</v>
       </c>
@@ -3197,8 +3769,16 @@
       <c r="C67">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <f t="shared" ref="E67:E111" si="2">(C67-C68)*B67</f>
+        <v>2.3199999999999941E-4</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G111" si="3">(C67-C68)*B68</f>
+        <v>2.2399999999999943E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.66</v>
       </c>
@@ -3208,8 +3788,16 @@
       <c r="C68">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>4.4800000000000043E-4</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>4.2800000000000037E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.67</v>
       </c>
@@ -3219,8 +3807,16 @@
       <c r="C69">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68</v>
       </c>
@@ -3230,8 +3826,16 @@
       <c r="C70">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>4.1599999999999965E-4</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>3.9599999999999971E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.69</v>
       </c>
@@ -3241,8 +3845,16 @@
       <c r="C71">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>1.9800000000000018E-4</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000017E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.7</v>
       </c>
@@ -3252,8 +3864,16 @@
       <c r="C72">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000017E-4</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000017E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.71</v>
       </c>
@@ -3263,8 +3883,16 @@
       <c r="C73">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>3.799999999999997E-4</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>3.4799999999999968E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.72</v>
       </c>
@@ -3274,8 +3902,16 @@
       <c r="C74">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>1.7400000000000014E-4</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>1.6400000000000016E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.73</v>
       </c>
@@ -3285,8 +3921,16 @@
       <c r="C75">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>1.6400000000000016E-4</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>1.5100000000000012E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.74</v>
       </c>
@@ -3296,8 +3940,16 @@
       <c r="C76">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.75</v>
       </c>
@@ -3307,8 +3959,16 @@
       <c r="C77">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999991E-4</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>1.3499999999999989E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.76</v>
       </c>
@@ -3318,8 +3978,16 @@
       <c r="C78">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>1.3500000000000014E-4</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>1.2700000000000011E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.77</v>
       </c>
@@ -3329,8 +3997,16 @@
       <c r="C79">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.78</v>
       </c>
@@ -3340,8 +4016,16 @@
       <c r="C80">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>1.2199999999999989E-4</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>1.119999999999999E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.79</v>
       </c>
@@ -3351,8 +4035,16 @@
       <c r="C81">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>1.1200000000000011E-4</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>1.0700000000000009E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.8</v>
       </c>
@@ -3362,8 +4054,16 @@
       <c r="C82">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.81</v>
       </c>
@@ -3373,8 +4073,16 @@
       <c r="C83">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>1.069999999999999E-4</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>9.8999999999999926E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.82</v>
       </c>
@@ -3384,8 +4092,16 @@
       <c r="C84">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.83</v>
       </c>
@@ -3395,8 +4111,16 @@
       <c r="C85">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000089E-5</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>9.9000000000000089E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.84</v>
       </c>
@@ -3406,8 +4130,16 @@
       <c r="C86">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>9.8999999999999926E-5</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>9.5999999999999921E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.85</v>
       </c>
@@ -3417,8 +4149,16 @@
       <c r="C87">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.86</v>
       </c>
@@ -3428,8 +4168,16 @@
       <c r="C88">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.87</v>
       </c>
@@ -3439,8 +4187,16 @@
       <c r="C89">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999993E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.88</v>
       </c>
@@ -3450,8 +4206,16 @@
       <c r="C90">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.89</v>
       </c>
@@ -3461,8 +4225,16 @@
       <c r="C91">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>6.5000000000000008E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.9</v>
       </c>
@@ -3472,8 +4244,16 @@
       <c r="C92">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.91</v>
       </c>
@@ -3483,8 +4263,16 @@
       <c r="C93">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000005E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.92</v>
       </c>
@@ -3494,8 +4282,16 @@
       <c r="C94">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.93</v>
       </c>
@@ -3505,8 +4301,16 @@
       <c r="C95">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.94</v>
       </c>
@@ -3516,8 +4320,16 @@
       <c r="C96">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.95</v>
       </c>
@@ -3527,8 +4339,16 @@
       <c r="C97">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.96</v>
       </c>
@@ -3538,8 +4358,16 @@
       <c r="C98">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97</v>
       </c>
@@ -3549,8 +4377,16 @@
       <c r="C99">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.98</v>
       </c>
@@ -3560,8 +4396,16 @@
       <c r="C100">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.99</v>
       </c>
@@ -3571,8 +4415,16 @@
       <c r="C101">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>2.3E-5</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3582,8 +4434,16 @@
       <c r="C102">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1.01</v>
       </c>
@@ -3593,8 +4453,16 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1.02</v>
       </c>
@@ -3604,8 +4472,16 @@
       <c r="C104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1.03</v>
       </c>
@@ -3615,8 +4491,16 @@
       <c r="C105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1.04</v>
       </c>
@@ -3626,8 +4510,16 @@
       <c r="C106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1.05</v>
       </c>
@@ -3637,8 +4529,16 @@
       <c r="C107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1.06</v>
       </c>
@@ -3648,8 +4548,16 @@
       <c r="C108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1.07</v>
       </c>
@@ -3659,8 +4567,16 @@
       <c r="C109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1.08</v>
       </c>
@@ -3670,8 +4586,16 @@
       <c r="C110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1.0900000000000001</v>
       </c>
@@ -3680,6 +4604,36 @@
       </c>
       <c r="C111">
         <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <f>SUM(E2:E111)</f>
+        <v>0.84231199999999984</v>
+      </c>
+      <c r="G112">
+        <f>SUM(G2:G111)</f>
+        <v>0.77322299999999988</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <f>(E112+G112)/2</f>
+        <v>0.80776749999999986</v>
       </c>
     </row>
   </sheetData>

--- a/Results/ROC_Curves_Results/ROC_Curve_CoefficiantA(Fscore).xlsx
+++ b/Results/ROC_Curves_Results/ROC_Curve_CoefficiantA(Fscore).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/Research_Evan/Raji_Summer2019_atom/Results/ROC_Curves_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31BD34F-90EB-874E-ACB0-5563A4E5FAA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B11927-D280-464D-9328-82634038699B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roc_Curve_CoefficiantA(Fscore)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Threshold</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area via intergration </t>
   </si>
 </sst>
 </file>
@@ -700,12 +703,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3581327498176513E-2"/>
+                  <c:y val="7.0513775598409476E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Roc_Curve_CoefficiantA(Fscore)'!$C$2:$C$111</c:f>
+              <c:f>'Roc_Curve_CoefficiantA(Fscore)'!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1008,43 +1060,16 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Roc_Curve_CoefficiantA(Fscore)'!$B$2:$B$111</c:f>
+              <c:f>'Roc_Curve_CoefficiantA(Fscore)'!$B$2:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1347,33 +1372,6 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,6 +1416,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPR</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50720216865670786"/>
+              <c:y val="0.92820359281437115"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1480,6 +1549,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1528,37 +1652,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2499,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K92" sqref="K12:K92"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2554,11 +2647,11 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">(C3-C4)*B3</f>
+        <f>(C3-C4)*B3</f>
         <v>6.5925000000000011E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">(C3-C4)*B4</f>
+        <f t="shared" ref="G3:G66" si="0">(C3-C4)*B4</f>
         <v>6.3825000000000007E-2</v>
       </c>
     </row>
@@ -2573,11 +2666,11 @@
         <v>0.41</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E66" si="1">(C4-C5)*B4</f>
         <v>3.4890999999999985E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4029999999999984E-2</v>
       </c>
     </row>
@@ -2592,11 +2685,11 @@
         <v>0.36899999999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4899999999999974E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4419999999999976E-2</v>
       </c>
     </row>
@@ -2611,11 +2704,11 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9536000000000015E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.941600000000002E-2</v>
       </c>
     </row>
@@ -2630,11 +2723,11 @@
         <v>0.315</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.941600000000002E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8984000000000018E-2</v>
       </c>
     </row>
@@ -2649,11 +2742,11 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2655999999999968E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2559999999999969E-2</v>
       </c>
     </row>
@@ -2668,11 +2761,11 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4200000000000082E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.2640000000000083E-3</v>
       </c>
     </row>
@@ -2687,11 +2780,11 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2640000000000083E-3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.1080000000000085E-3</v>
       </c>
     </row>
@@ -2706,11 +2799,11 @@
         <v>0.251</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1080000000000085E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.9520000000000086E-3</v>
       </c>
     </row>
@@ -2725,11 +2818,11 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2219999999999836E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.165999999999984E-3</v>
       </c>
     </row>
@@ -2744,11 +2837,11 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6420000000000055E-3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.5070000000000058E-3</v>
       </c>
     </row>
@@ -2763,11 +2856,11 @@
         <v>0.223</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7840000000000053E-3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7840000000000053E-3</v>
       </c>
     </row>
@@ -2782,11 +2875,11 @@
         <v>0.215</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0610000000000047E-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.9700000000000039E-3</v>
       </c>
     </row>
@@ -2801,11 +2894,11 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5499999999999833E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5349999999999835E-3</v>
       </c>
     </row>
@@ -2820,11 +2913,11 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8280000000000024E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7880000000000023E-3</v>
       </c>
     </row>
@@ -2839,11 +2932,11 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1820000000000034E-3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.146000000000003E-3</v>
       </c>
     </row>
@@ -2858,11 +2951,11 @@
         <v>0.193</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4550000000000028E-3</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4550000000000028E-3</v>
       </c>
     </row>
@@ -2877,11 +2970,11 @@
         <v>0.188</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8370000000000036E-3</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.7320000000000044E-3</v>
       </c>
     </row>
@@ -2896,11 +2989,11 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3800000000000032E-3</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3550000000000034E-3</v>
       </c>
     </row>
@@ -2915,11 +3008,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6840000000000024E-3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6600000000000026E-3</v>
       </c>
     </row>
@@ -2934,11 +3027,11 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3249999999999847E-3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.274999999999985E-3</v>
       </c>
     </row>
@@ -2953,11 +3046,11 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9650000000000019E-3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9170000000000018E-3</v>
       </c>
     </row>
@@ -2972,11 +3065,11 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5560000000000023E-3</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5360000000000022E-3</v>
       </c>
     </row>
@@ -2991,11 +3084,11 @@
         <v>0.16</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5360000000000022E-3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4840000000000023E-3</v>
       </c>
     </row>
@@ -3010,11 +3103,11 @@
         <v>0.156</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4840000000000023E-3</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.420000000000002E-3</v>
       </c>
     </row>
@@ -3029,11 +3122,11 @@
         <v>0.152</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8150000000000015E-3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8090000000000016E-3</v>
       </c>
     </row>
@@ -3048,11 +3141,11 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4120000000000022E-3</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3880000000000021E-3</v>
       </c>
     </row>
@@ -3067,11 +3160,11 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7910000000000016E-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7610000000000015E-3</v>
       </c>
     </row>
@@ -3086,11 +3179,11 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9349999999999862E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8949999999999861E-3</v>
       </c>
     </row>
@@ -3105,11 +3198,11 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.158000000000001E-3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.148000000000001E-3</v>
       </c>
     </row>
@@ -3124,11 +3217,11 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8700000000000023E-3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8150000000000024E-3</v>
       </c>
     </row>
@@ -3143,11 +3236,11 @@
         <v>0.13</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6890000000000013E-3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6830000000000016E-3</v>
       </c>
     </row>
@@ -3162,11 +3255,11 @@
         <v>0.127</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.122000000000001E-3</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1000000000000012E-3</v>
       </c>
     </row>
@@ -3181,11 +3274,11 @@
         <v>0.125</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000023E-3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1720000000000021E-3</v>
       </c>
     </row>
@@ -3200,11 +3293,11 @@
         <v>0.121</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1719999999999947E-3</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1479999999999945E-3</v>
       </c>
     </row>
@@ -3219,11 +3312,11 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6110000000000015E-3</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5660000000000014E-3</v>
       </c>
     </row>
@@ -3238,11 +3331,11 @@
         <v>0.114</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0880000000000017E-3</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0760000000000019E-3</v>
       </c>
     </row>
@@ -3257,11 +3350,11 @@
         <v>0.11</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5570000000000015E-3</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5180000000000013E-3</v>
       </c>
     </row>
@@ -3276,11 +3369,11 @@
         <v>0.107</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.012000000000001E-3</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0020000000000009E-3</v>
       </c>
     </row>
@@ -3295,11 +3388,11 @@
         <v>0.105</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5030000000000013E-3</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4700000000000013E-3</v>
       </c>
     </row>
@@ -3314,11 +3407,11 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4699999999999945E-3</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4639999999999946E-3</v>
       </c>
     </row>
@@ -3333,11 +3426,11 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7600000000000085E-4</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.6000000000000078E-4</v>
       </c>
     </row>
@@ -3352,11 +3445,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.400000000000002E-3</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3600000000000019E-3</v>
       </c>
     </row>
@@ -3371,11 +3464,11 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8880000000000017E-3</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8480000000000018E-3</v>
       </c>
     </row>
@@ -3390,11 +3483,11 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8479999999999953E-3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7959999999999953E-3</v>
       </c>
     </row>
@@ -3409,11 +3502,11 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7960000000000016E-3</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7840000000000015E-3</v>
       </c>
     </row>
@@ -3428,11 +3521,11 @@
         <v>0.08</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0140000000000037E-3</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9240000000000039E-3</v>
       </c>
     </row>
@@ -3447,11 +3540,11 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4879999999999972E-3</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3599999999999971E-3</v>
       </c>
     </row>
@@ -3466,11 +3559,11 @@
         <v>6.3E-2</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.099999999999999E-3</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9799999999999991E-3</v>
       </c>
     </row>
@@ -3485,11 +3578,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9200000000000071E-4</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6600000000000073E-4</v>
       </c>
     </row>
@@ -3504,11 +3597,11 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5320000000000015E-3</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5120000000000014E-3</v>
       </c>
     </row>
@@ -3523,11 +3616,11 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1339999999999983E-3</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1099999999999984E-3</v>
       </c>
     </row>
@@ -3542,11 +3635,11 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4000000000000064E-4</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.0400000000000063E-4</v>
       </c>
     </row>
@@ -3561,11 +3654,11 @@
         <v>4.7E-2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0560000000000009E-3</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0560000000000009E-3</v>
       </c>
     </row>
@@ -3580,11 +3673,11 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5200000000000032E-4</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.470000000000003E-4</v>
       </c>
     </row>
@@ -3599,11 +3692,11 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9399999999999811E-4</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.5199999999999839E-4</v>
       </c>
     </row>
@@ -3618,11 +3711,11 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5200000000000056E-4</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1000000000000052E-4</v>
       </c>
     </row>
@@ -3637,11 +3730,11 @@
         <v>3.9E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0500000000000026E-4</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8700000000000025E-4</v>
       </c>
     </row>
@@ -3656,11 +3749,11 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.609999999999987E-4</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3699999999999888E-4</v>
       </c>
     </row>
@@ -3675,11 +3768,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5800000000000055E-4</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4200000000000049E-4</v>
       </c>
     </row>
@@ -3694,11 +3787,11 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4200000000000049E-4</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.1000000000000047E-4</v>
       </c>
     </row>
@@ -3713,11 +3806,11 @@
         <v>3.1E-2</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.099999999999996E-4</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.7999999999999958E-4</v>
       </c>
     </row>
@@ -3732,11 +3825,11 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.400000000000002E-4</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.370000000000002E-4</v>
       </c>
     </row>
@@ -3751,11 +3844,11 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7400000000000041E-4</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6400000000000044E-4</v>
       </c>
     </row>
@@ -4634,6 +4727,14 @@
       <c r="F113">
         <f>(E112+G112)/2</f>
         <v>0.80776749999999986</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>0.7228</v>
       </c>
     </row>
   </sheetData>
